--- a/設計書/02_基本設計（外部設計）/構造設計/Javaプロジェクト構成.xlsx
+++ b/設計書/02_基本設計（外部設計）/構造設計/Javaプロジェクト構成.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\AppReportManagement\設計書\02_基本設計（外部設計）\構造設計\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21555" windowHeight="10530" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21552" windowHeight="10536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>パッケージ構成</t>
     <rPh sb="5" eb="7">
@@ -222,11 +227,29 @@
     <t>model</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>src/java/main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通層</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,12 +315,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -339,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,9 +398,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,6 +450,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,193 +647,193 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="23" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="23" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
         <v>26</v>
       </c>
@@ -781,12 +841,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
         <v>27</v>
       </c>
@@ -794,12 +854,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
         <v>28</v>
       </c>
@@ -813,229 +873,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="23" width="3.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E9" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="E19" t="s">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="E22" t="s">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F24" t="s">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="E25" t="s">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F26" t="s">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F27" t="s">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F28" t="s">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F29" t="s">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F44" t="s">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
         <v>38</v>
       </c>
     </row>
